--- a/Base de Datos 1.xlsx
+++ b/Base de Datos 1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,24 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,23 +53,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,36 +375,447 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B100"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
